--- a/NNCurveFitting.xlsx
+++ b/NNCurveFitting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CE6D7-306D-4F87-81B9-6AF66750F48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D235576-A9A8-427E-9B5B-B9CBF0D1983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{535258E1-83BB-47EC-81B9-4B9C6C67D868}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{535258E1-83BB-47EC-81B9-4B9C6C67D868}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,8 +254,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +574,10 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
@@ -583,13 +588,13 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -647,7 +652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>-0.35614338000000001</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -666,32 +671,32 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1">
         <f>($C$2*G2)+$C$6</f>
-        <v>-10</v>
+        <v>1.06854914</v>
       </c>
       <c r="J2" s="1">
         <f>($C$3*G2)+$C$7</f>
-        <v>-10</v>
+        <v>0.69438610999999995</v>
       </c>
       <c r="K2" s="1">
         <f>($C$4*G2)+$C$8</f>
-        <v>-10</v>
+        <v>0.33182292000000002</v>
       </c>
       <c r="L2" s="1">
         <f>($C$5*G2)+$C$9</f>
-        <v>-4</v>
+        <v>-21.335530599999998</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
         <f>MAX(0,I2)</f>
-        <v>0</v>
+        <v>1.06854914</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:Q14" si="0">MAX(0,J2)</f>
-        <v>0</v>
+        <v>0.69438610999999995</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33182292000000002</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
@@ -700,7 +705,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1">
         <f>$C$14+((N2*$C$10)+(O2*$C$11)+(P2*$C$12)+(Q2*$C$13))</f>
-        <v>0</v>
+        <v>1.2972307672498573E-8</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>13</v>
@@ -719,10 +724,10 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1">
         <f>IF(S2=V2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>5.1760550000000002E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -741,32 +746,32 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I14" si="1">($C$2*G3)+$C$6</f>
-        <v>-9</v>
+        <v>0.71240576</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J14" si="2">($C$3*G3)+$C$7</f>
-        <v>-9</v>
+        <v>0.74614665999999996</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K14" si="3">($C$4*G3)+$C$8</f>
-        <v>-9</v>
+        <v>0.37861365000000002</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L14" si="4">($C$5*G3)+$C$9</f>
-        <v>-3</v>
+        <v>-17.06813932</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N14" si="5">MAX(0,I3)</f>
-        <v>0</v>
+        <v>0.71240576</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.74614665999999996</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.37861365000000002</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
@@ -775,7 +780,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1">
         <f t="shared" ref="S3:S14" si="6">$C$14+((N3*$C$10)+(O3*$C$11)+(P3*$C$12)+(Q3*$C$13))</f>
-        <v>0</v>
+        <v>0.99999993983372448</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>13</v>
@@ -797,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -805,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>4.6790730000000003E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -816,32 +821,32 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>0.35626237999999999</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>0.79790720999999998</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>0.42540438000000003</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>-12.800748039999998</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.35626237999999999</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79790720999999998</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42540438000000003</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
@@ -850,7 +855,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9999998666951377</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>13</v>
@@ -872,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -880,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>4.26739128</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -891,32 +896,32 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>1.1899999999998023E-4</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>0.84966775999999999</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>0.47219511000000003</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>-8.5333567599999984</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.1899999999998023E-4</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84966775999999999</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47219511000000003</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
@@ -925,7 +930,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.999999793556551</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>13</v>
@@ -947,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>-10</v>
+        <v>1.06854914</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -966,19 +971,19 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-0.35602438000000003</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>0.90142831000000001</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="3"/>
-        <v>-6</v>
+        <v>0.51898584000000003</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4.2659654799999984</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
@@ -987,11 +992,11 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.90142831000000001</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.51898584000000003</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
@@ -1000,7 +1005,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9999997801091602</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>13</v>
@@ -1014,7 +1019,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1">
@@ -1022,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>-10</v>
+        <v>0.69438610999999995</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1041,19 +1046,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-0.71216776000000004</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>0.95318886000000003</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>0.56577657000000003</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.4257999999998106E-3</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
@@ -1062,20 +1067,20 @@
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95318886000000003</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56577657000000003</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.4257999999998106E-3</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.99999972674430637</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>13</v>
@@ -1094,10 +1099,10 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>-10</v>
+        <v>0.33182292000000002</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1116,19 +1121,19 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-1.06831114</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>1.00494941</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>0.61256730000000004</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4.2688170800000016</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
@@ -1137,20 +1142,20 @@
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.00494941</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.61256730000000004</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4.2688170800000016</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.999999684769687</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>13</v>
@@ -1169,10 +1174,10 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>-4</v>
+        <v>-21.335530599999998</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1191,19 +1196,19 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-1.4244545200000003</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>1.0567099600000001</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>0.65935803000000004</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8.5362083600000034</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -1212,20 +1217,20 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0567099600000001</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.65935803000000004</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8.5362083600000034</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.9999996427950713</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>13</v>
@@ -1244,10 +1249,10 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>-5.6175926499999997</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1266,19 +1271,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-1.7805979000000001</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>1.1084705100000001</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>0.70614876000000004</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>12.803599640000002</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
@@ -1287,20 +1292,20 @@
       </c>
       <c r="O10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1084705100000001</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70614876000000004</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12.803599640000002</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3.9999996008204519</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>13</v>
@@ -1319,10 +1324,10 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>-20.45828289</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1341,19 +1346,19 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2.1367412799999999</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1.1602310600000001</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.75293949000000004</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>17.07099092</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
@@ -1362,20 +1367,20 @@
       </c>
       <c r="O11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1602310600000001</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75293949000000004</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>17.07099092</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4.9999995588458308</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>13</v>
@@ -1394,10 +1399,10 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1410,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>1.24519253</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1416,19 +1421,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.4928846600000001</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2119916100000001</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.79973022000000005</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>21.338382199999998</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
@@ -1437,20 +1442,20 @@
       </c>
       <c r="O12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2119916100000001</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79973022000000005</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>21.338382199999998</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5.9999995168712132</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>13</v>
@@ -1469,10 +1474,10 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0.46882705000000002</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1491,41 +1496,41 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-2.8490280400000003</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.2637521600000001</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.84652095000000005</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>25.605773480000003</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2637521600000001</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.84652095000000005</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25.605773480000003</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>6.9999994748965957</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>13</v>
@@ -1544,10 +1549,10 @@
       </c>
       <c r="Z13" s="1">
         <f>SUM(Z2:Z12)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>19.79543786</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1566,41 +1571,41 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-3.2051714200000001</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.3155127099999999</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.89331168000000005</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>29.873164760000002</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.3155127099999999</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.89331168000000005</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>29.873164760000002</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>7.9999994329219799</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>13</v>
@@ -1617,7 +1622,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1645,12 +1650,12 @@
       </c>
       <c r="X15" s="1">
         <f>SUM(X2:X14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="X16" s="1"/>
     </row>
   </sheetData>
